--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag2-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag2-Notch1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H2">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I2">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J2">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N2">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O2">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P2">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q2">
-        <v>1227.55781163984</v>
+        <v>1683.637629701283</v>
       </c>
       <c r="R2">
-        <v>4910.23124655936</v>
+        <v>6734.550518805133</v>
       </c>
       <c r="S2">
-        <v>0.1765932044843211</v>
+        <v>0.4079662186993749</v>
       </c>
       <c r="T2">
-        <v>0.1163054953336392</v>
+        <v>0.3258120216790724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H3">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I3">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J3">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P3">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q3">
-        <v>77.21513080329333</v>
+        <v>96.15910256267865</v>
       </c>
       <c r="R3">
-        <v>463.2907848197601</v>
+        <v>576.954615376072</v>
       </c>
       <c r="S3">
-        <v>0.01110796351416989</v>
+        <v>0.02330053972064146</v>
       </c>
       <c r="T3">
-        <v>0.01097367140289556</v>
+        <v>0.0279125903247514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H4">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I4">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J4">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N4">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O4">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P4">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q4">
-        <v>229.6844490556333</v>
+        <v>323.3915586023262</v>
       </c>
       <c r="R4">
-        <v>1378.1066943338</v>
+        <v>1940.349351613957</v>
       </c>
       <c r="S4">
-        <v>0.03304179444287584</v>
+        <v>0.07836177393213546</v>
       </c>
       <c r="T4">
-        <v>0.03264232857045322</v>
+        <v>0.09387250763770139</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H5">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I5">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J5">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N5">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O5">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P5">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q5">
-        <v>581.3423096316876</v>
+        <v>459.4358738339963</v>
       </c>
       <c r="R5">
-        <v>2325.36923852675</v>
+        <v>1837.743495335985</v>
       </c>
       <c r="S5">
-        <v>0.08363035971644847</v>
+        <v>0.1113269939304896</v>
       </c>
       <c r="T5">
-        <v>0.05507952834400009</v>
+        <v>0.08890852060149312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H6">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I6">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J6">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N6">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O6">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P6">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q6">
-        <v>819.9664540499369</v>
+        <v>575.7909617436709</v>
       </c>
       <c r="R6">
-        <v>4919.798724299621</v>
+        <v>3454.745770462025</v>
       </c>
       <c r="S6">
-        <v>0.1179581949764888</v>
+        <v>0.1395212706581755</v>
       </c>
       <c r="T6">
-        <v>0.1165321140368733</v>
+        <v>0.1671377623077308</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H7">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I7">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J7">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N7">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O7">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P7">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q7">
-        <v>223.0336546292067</v>
+        <v>202.804618584818</v>
       </c>
       <c r="R7">
-        <v>1338.20192777524</v>
+        <v>1216.827711508908</v>
       </c>
       <c r="S7">
-        <v>0.03208502883151925</v>
+        <v>0.04914206710472296</v>
       </c>
       <c r="T7">
-        <v>0.03169712998250105</v>
+        <v>0.05886912506110016</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I8">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J8">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N8">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O8">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P8">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q8">
-        <v>16.275667695488</v>
+        <v>17.92493104380933</v>
       </c>
       <c r="R8">
-        <v>97.65400617292799</v>
+        <v>107.549586262856</v>
       </c>
       <c r="S8">
-        <v>0.002341374301246711</v>
+        <v>0.004343432463960424</v>
       </c>
       <c r="T8">
-        <v>0.002313067753624656</v>
+        <v>0.005203160631611981</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I9">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J9">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P9">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q9">
         <v>1.023762626983111</v>
@@ -1013,10 +1013,10 @@
         <v>9.213863642848001</v>
       </c>
       <c r="S9">
-        <v>0.0001472757708158165</v>
+        <v>0.0002480703450719033</v>
       </c>
       <c r="T9">
-        <v>0.0002182428731170128</v>
+        <v>0.0004457591538691483</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I10">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J10">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N10">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O10">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P10">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q10">
-        <v>3.045288565804444</v>
+        <v>3.443004174909778</v>
       </c>
       <c r="R10">
-        <v>27.40759709224</v>
+        <v>30.987037574188</v>
       </c>
       <c r="S10">
-        <v>0.0004380871200652264</v>
+        <v>0.0008342824901420848</v>
       </c>
       <c r="T10">
-        <v>0.0006491861575666927</v>
+        <v>0.001499127422045507</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I11">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J11">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N11">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O11">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P11">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q11">
-        <v>7.707770794316667</v>
+        <v>4.891406685290001</v>
       </c>
       <c r="R11">
-        <v>46.24662476589999</v>
+        <v>29.34844011174</v>
       </c>
       <c r="S11">
-        <v>0.001108819422672041</v>
+        <v>0.001185248330350432</v>
       </c>
       <c r="T11">
-        <v>0.001095414112049381</v>
+        <v>0.001419853422917039</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I12">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J12">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N12">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O12">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P12">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q12">
-        <v>10.87158698435289</v>
+        <v>6.130186866122222</v>
       </c>
       <c r="R12">
-        <v>97.844282859176</v>
+        <v>55.1716817951</v>
       </c>
       <c r="S12">
-        <v>0.001563957611765977</v>
+        <v>0.001485420087775167</v>
       </c>
       <c r="T12">
-        <v>0.002317574715340568</v>
+        <v>0.002669160641813004</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I13">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J13">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N13">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O13">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P13">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q13">
-        <v>2.957108507016889</v>
+        <v>2.159169371941333</v>
       </c>
       <c r="R13">
-        <v>26.61397656315199</v>
+        <v>19.432524347472</v>
       </c>
       <c r="S13">
-        <v>0.0004254017711511021</v>
+        <v>0.0005231934405972482</v>
       </c>
       <c r="T13">
-        <v>0.0006303881775719212</v>
+        <v>0.0009401295641481027</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H14">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I14">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J14">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N14">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O14">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P14">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q14">
-        <v>122.24189849376</v>
+        <v>121.4178407889576</v>
       </c>
       <c r="R14">
-        <v>733.4513909625599</v>
+        <v>728.5070447337459</v>
       </c>
       <c r="S14">
-        <v>0.01758539465316339</v>
+        <v>0.02942104435982602</v>
       </c>
       <c r="T14">
-        <v>0.01737279224656084</v>
+        <v>0.03524457235703694</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H15">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I15">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J15">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P15">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q15">
-        <v>7.689189130106667</v>
+        <v>6.934645792774222</v>
       </c>
       <c r="R15">
-        <v>69.20270217096001</v>
+        <v>62.411812134968</v>
       </c>
       <c r="S15">
-        <v>0.001106146313840521</v>
+        <v>0.00168035043419621</v>
       </c>
       <c r="T15">
-        <v>0.001639159980512033</v>
+        <v>0.003019432199902215</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H16">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I16">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J16">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N16">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O16">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P16">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q16">
-        <v>22.87229394886667</v>
+        <v>23.32182655114256</v>
       </c>
       <c r="R16">
-        <v>205.8506455398</v>
+        <v>209.896438960283</v>
       </c>
       <c r="S16">
-        <v>0.003290347423183327</v>
+        <v>0.005651166987114925</v>
       </c>
       <c r="T16">
-        <v>0.004875852091697694</v>
+        <v>0.01015461728736445</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H17">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I17">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J17">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N17">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O17">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P17">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q17">
-        <v>57.890868299875</v>
+        <v>33.1328492532025</v>
       </c>
       <c r="R17">
-        <v>347.34520979925</v>
+        <v>198.797095519215</v>
       </c>
       <c r="S17">
-        <v>0.008328026465652236</v>
+        <v>0.008028499117689407</v>
       </c>
       <c r="T17">
-        <v>0.008227343000551337</v>
+        <v>0.009617640169775564</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H18">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I18">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J18">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N18">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O18">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P18">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q18">
-        <v>81.65338943211336</v>
+        <v>41.52395627621944</v>
       </c>
       <c r="R18">
-        <v>734.8805048890201</v>
+        <v>373.7156064859751</v>
       </c>
       <c r="S18">
-        <v>0.01174643960561077</v>
+        <v>0.01006176811957633</v>
       </c>
       <c r="T18">
-        <v>0.01740664275069374</v>
+        <v>0.01808005403511613</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H19">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I19">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J19">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N19">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O19">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P19">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q19">
-        <v>22.20999867489333</v>
+        <v>14.62553369929467</v>
       </c>
       <c r="R19">
-        <v>199.88998807404</v>
+        <v>131.629803293652</v>
       </c>
       <c r="S19">
-        <v>0.003195071385153367</v>
+        <v>0.003543947684764068</v>
       </c>
       <c r="T19">
-        <v>0.004734665824848217</v>
+        <v>0.006368141749708406</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H20">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I20">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J20">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N20">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O20">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P20">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q20">
-        <v>117.505780341024</v>
+        <v>138.9666620811465</v>
       </c>
       <c r="R20">
-        <v>470.0231213640959</v>
+        <v>555.866648324586</v>
       </c>
       <c r="S20">
-        <v>0.016904069282189</v>
+        <v>0.03367334077973651</v>
       </c>
       <c r="T20">
-        <v>0.0111331359366872</v>
+        <v>0.02689237180252619</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H21">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I21">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J21">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.657032</v>
       </c>
       <c r="O21">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P21">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q21">
-        <v>7.391280567922666</v>
+        <v>7.936927326947999</v>
       </c>
       <c r="R21">
-        <v>44.347683407536</v>
+        <v>47.621563961688</v>
       </c>
       <c r="S21">
-        <v>0.001063289979792097</v>
+        <v>0.00192321564483042</v>
       </c>
       <c r="T21">
-        <v>0.001050435107150413</v>
+        <v>0.002303892143440282</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H22">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I22">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J22">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N22">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O22">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P22">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q22">
-        <v>21.98613390144666</v>
+        <v>26.6925879128505</v>
       </c>
       <c r="R22">
-        <v>131.91680340868</v>
+        <v>160.155527477103</v>
       </c>
       <c r="S22">
-        <v>0.003162866793777508</v>
+        <v>0.006467944150213812</v>
       </c>
       <c r="T22">
-        <v>0.00312462863618237</v>
+        <v>0.00774819285187443</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H23">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I23">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J23">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N23">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O23">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P23">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q23">
-        <v>55.6479548993875</v>
+        <v>37.92162202882875</v>
       </c>
       <c r="R23">
-        <v>222.59181959755</v>
+        <v>151.686488115315</v>
       </c>
       <c r="S23">
-        <v>0.008005366904516125</v>
+        <v>0.009188877982486684</v>
       </c>
       <c r="T23">
-        <v>0.005272389534331914</v>
+        <v>0.007338467684851203</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H24">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I24">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J24">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N24">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O24">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P24">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q24">
-        <v>78.48982518215534</v>
+        <v>47.5255165354125</v>
       </c>
       <c r="R24">
-        <v>470.938951092932</v>
+        <v>285.153099212475</v>
       </c>
       <c r="S24">
-        <v>0.01129133765994694</v>
+        <v>0.01151602038980733</v>
       </c>
       <c r="T24">
-        <v>0.0111548286075422</v>
+        <v>0.01379547268715913</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H25">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I25">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J25">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N25">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O25">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P25">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q25">
-        <v>21.34949847657733</v>
+        <v>16.739398313622</v>
       </c>
       <c r="R25">
-        <v>128.096990859464</v>
+        <v>100.436389881732</v>
       </c>
       <c r="S25">
-        <v>0.003071282113447277</v>
+        <v>0.004056163222321602</v>
       </c>
       <c r="T25">
-        <v>0.003034151188520507</v>
+        <v>0.004859030034170791</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H26">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I26">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J26">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N26">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O26">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P26">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q26">
-        <v>929.6294567840959</v>
+        <v>49.47552711665234</v>
       </c>
       <c r="R26">
-        <v>5577.776740704575</v>
+        <v>296.853162699914</v>
       </c>
       <c r="S26">
-        <v>0.1337340231147401</v>
+        <v>0.01198853206881591</v>
       </c>
       <c r="T26">
-        <v>0.1321172169116608</v>
+        <v>0.01436151214710105</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H27">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I27">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J27">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.657032</v>
       </c>
       <c r="O27">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P27">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q27">
-        <v>58.47501390446844</v>
+        <v>2.825740053812445</v>
       </c>
       <c r="R27">
-        <v>526.275125140216</v>
+        <v>25.431660484312</v>
       </c>
       <c r="S27">
-        <v>0.00841206009993198</v>
+        <v>0.0006847117600868581</v>
       </c>
       <c r="T27">
-        <v>0.01246554103823424</v>
+        <v>0.001230362842169249</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H28">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I28">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J28">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N28">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O28">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P28">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q28">
-        <v>173.9400194293978</v>
+        <v>9.503213485294113</v>
       </c>
       <c r="R28">
-        <v>1565.46017486458</v>
+        <v>85.52892136764702</v>
       </c>
       <c r="S28">
-        <v>0.02502254894054191</v>
+        <v>0.002302746150771302</v>
       </c>
       <c r="T28">
-        <v>0.0370800501891412</v>
+        <v>0.004137818953917007</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H29">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I29">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J29">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N29">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O29">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P29">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q29">
-        <v>440.2504960532792</v>
+        <v>13.5010239930725</v>
       </c>
       <c r="R29">
-        <v>2641.502976319675</v>
+        <v>81.00614395843502</v>
       </c>
       <c r="S29">
-        <v>0.06333326637382894</v>
+        <v>0.003271465076484758</v>
       </c>
       <c r="T29">
-        <v>0.06256758524385478</v>
+        <v>0.003919010698312556</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H30">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I30">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J30">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N30">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O30">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P30">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q30">
-        <v>620.9605462420936</v>
+        <v>16.92024509236389</v>
       </c>
       <c r="R30">
-        <v>5588.644916178842</v>
+        <v>152.282205831275</v>
       </c>
       <c r="S30">
-        <v>0.08932973394771469</v>
+        <v>0.00409998463328661</v>
       </c>
       <c r="T30">
-        <v>0.1323746444071159</v>
+        <v>0.007367288018568354</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H31">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I31">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J31">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N31">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O31">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P31">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q31">
-        <v>168.9033732110315</v>
+        <v>5.959634798585334</v>
       </c>
       <c r="R31">
-        <v>1520.130358899284</v>
+        <v>53.636713187268</v>
       </c>
       <c r="S31">
-        <v>0.0242979904007148</v>
+        <v>0.001444093212646622</v>
       </c>
       <c r="T31">
-        <v>0.03600635193859125</v>
+        <v>0.002594900121539947</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H32">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I32">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J32">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N32">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O32">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P32">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q32">
-        <v>288.182682754112</v>
+        <v>68.12088888571699</v>
       </c>
       <c r="R32">
-        <v>1729.096096524672</v>
+        <v>408.725333314302</v>
       </c>
       <c r="S32">
-        <v>0.04145719488066633</v>
+        <v>0.01650653380684834</v>
       </c>
       <c r="T32">
-        <v>0.04095598921673574</v>
+        <v>0.01977379585864514</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H33">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I33">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J33">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>12.657032</v>
       </c>
       <c r="O33">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P33">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q33">
-        <v>18.12710027430578</v>
+        <v>3.890649285490666</v>
       </c>
       <c r="R33">
-        <v>163.143902468752</v>
+        <v>35.015843569416</v>
       </c>
       <c r="S33">
-        <v>0.002607716471757884</v>
+        <v>0.0009427524363236453</v>
       </c>
       <c r="T33">
-        <v>0.003864284884869066</v>
+        <v>0.00169403774643801</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H34">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I34">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J34">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N34">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O34">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P34">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q34">
-        <v>53.92094782675111</v>
+        <v>13.08459732753567</v>
       </c>
       <c r="R34">
-        <v>485.28853044076</v>
+        <v>117.761375947821</v>
       </c>
       <c r="S34">
-        <v>0.007756924256657007</v>
+        <v>0.003170559745606169</v>
       </c>
       <c r="T34">
-        <v>0.01149471788160601</v>
+        <v>0.005697198627604363</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H35">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I35">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J35">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N35">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O35">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P35">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q35">
-        <v>136.4764940596417</v>
+        <v>18.5890238846175</v>
       </c>
       <c r="R35">
-        <v>818.8589643578501</v>
+        <v>111.534143307705</v>
       </c>
       <c r="S35">
-        <v>0.01963314574209936</v>
+        <v>0.004504350371917794</v>
       </c>
       <c r="T35">
-        <v>0.01939578660878029</v>
+        <v>0.005395930228135578</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H36">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I36">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J36">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N36">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O36">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P36">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q36">
-        <v>192.4961335880583</v>
+        <v>23.29681365775834</v>
       </c>
       <c r="R36">
-        <v>1732.465202292525</v>
+        <v>209.671322919825</v>
       </c>
       <c r="S36">
-        <v>0.02769198220957655</v>
+        <v>0.005645106053721256</v>
       </c>
       <c r="T36">
-        <v>0.04103579106220606</v>
+        <v>0.0101437263582595</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H37">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I37">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J37">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N37">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O37">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P37">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q37">
-        <v>52.35960076669422</v>
+        <v>8.205584529835999</v>
       </c>
       <c r="R37">
-        <v>471.236406900248</v>
+        <v>73.850260768524</v>
       </c>
       <c r="S37">
-        <v>0.00753231301795755</v>
+        <v>0.001988314607490226</v>
       </c>
       <c r="T37">
-        <v>0.01116187425229345</v>
+        <v>0.003572814948129386</v>
       </c>
     </row>
   </sheetData>
